--- a/Code/Results/Cases/Case_2_199/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_199/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.89006414809444</v>
+        <v>11.32582968320327</v>
       </c>
       <c r="C2">
-        <v>6.932515778081876</v>
+        <v>8.472453906814785</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.632648526109137</v>
+        <v>12.47009151757337</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.120089117312008</v>
+        <v>3.672110882304977</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.2301086835039</v>
+        <v>26.0836635719414</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.87175518411081</v>
+        <v>8.747077556603333</v>
       </c>
       <c r="L2">
-        <v>6.372804231537558</v>
+        <v>10.19726921246547</v>
       </c>
       <c r="M2">
-        <v>9.49964431297369</v>
+        <v>13.76038602900983</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.24470751216527</v>
+        <v>25.96677269883756</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.0390089438726</v>
+        <v>11.07827039028585</v>
       </c>
       <c r="C3">
-        <v>6.851568824688499</v>
+        <v>8.451045178104968</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.647822179904051</v>
+        <v>12.50113403619955</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.124420530064497</v>
+        <v>3.673715595238764</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.53154123027068</v>
+        <v>26.20656583979776</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.28823264259075</v>
+        <v>8.566319071669923</v>
       </c>
       <c r="L3">
-        <v>6.297337707142761</v>
+        <v>10.20590862198843</v>
       </c>
       <c r="M3">
-        <v>9.17035732390308</v>
+        <v>13.72171817083736</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.49761227270934</v>
+        <v>26.08738321650708</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.48532896232332</v>
+        <v>10.92483694703489</v>
       </c>
       <c r="C4">
-        <v>6.801768043071629</v>
+        <v>8.43794495028714</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.660957224533695</v>
+        <v>12.52193474537765</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.127162907276639</v>
+        <v>3.674753052405734</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>16.72604291119612</v>
+        <v>26.28651275687345</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.912201478337639</v>
+        <v>8.454248197487992</v>
       </c>
       <c r="L4">
-        <v>6.253356171666822</v>
+        <v>10.21258808170198</v>
       </c>
       <c r="M4">
-        <v>8.965048514756102</v>
+        <v>13.69962973144842</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.66443365120557</v>
+        <v>26.1663325129804</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.25183945515535</v>
+        <v>10.86203685445207</v>
       </c>
       <c r="C5">
-        <v>6.781457702682765</v>
+        <v>8.432619279414224</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.667249684089176</v>
+        <v>12.53084916182748</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.128301713307007</v>
+        <v>3.675188979605722</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>16.80762297228392</v>
+        <v>26.32022069300565</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.754575181738714</v>
+        <v>8.408364342837283</v>
       </c>
       <c r="L5">
-        <v>6.236033463425054</v>
+        <v>10.21565627343974</v>
       </c>
       <c r="M5">
-        <v>8.880717423905446</v>
+        <v>13.69105033350608</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.73521482760032</v>
+        <v>26.19973576062754</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.21259304095848</v>
+        <v>10.85159490179191</v>
       </c>
       <c r="C6">
-        <v>6.778084473426296</v>
+        <v>8.431735771288764</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.668350709922578</v>
+        <v>12.53235585413043</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.128492107688952</v>
+        <v>3.675262160682138</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>16.82130799882742</v>
+        <v>26.32588609213031</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.728138733777786</v>
+        <v>8.400734185788348</v>
       </c>
       <c r="L6">
-        <v>6.23319349252677</v>
+        <v>10.21618667217774</v>
       </c>
       <c r="M6">
-        <v>8.866677787475561</v>
+        <v>13.68965137572163</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.74713432139573</v>
+        <v>26.20535668499758</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.48221190952999</v>
+        <v>10.92399100063063</v>
       </c>
       <c r="C7">
-        <v>6.801494184220259</v>
+        <v>8.437873072707255</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.661038308414392</v>
+        <v>12.5220531946402</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>2.127178178959405</v>
+        <v>3.674758878155882</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>16.72713380020359</v>
+        <v>26.28696278122834</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.910093344058014</v>
+        <v>8.453630179633594</v>
       </c>
       <c r="L7">
-        <v>6.2531201121827</v>
+        <v>10.21262805774682</v>
       </c>
       <c r="M7">
-        <v>8.963913727072676</v>
+        <v>13.69951231111952</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.66537702037453</v>
+        <v>26.16677801730501</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.60306043979927</v>
+        <v>11.24081833864349</v>
       </c>
       <c r="C8">
-        <v>6.904631003508223</v>
+        <v>8.465063782427194</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.6370756790002</v>
+        <v>12.48043392698687</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.121565650526369</v>
+        <v>3.672653386093049</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.33205538457931</v>
+        <v>26.12511029403635</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.67427746889317</v>
+        <v>8.685011652533872</v>
       </c>
       <c r="L8">
-        <v>6.346299638822297</v>
+        <v>10.19996308025958</v>
       </c>
       <c r="M8">
-        <v>9.386823357504106</v>
+        <v>13.74671378072484</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.32945115406338</v>
+        <v>26.00734354795464</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.5556634809628</v>
+        <v>11.84719176163476</v>
       </c>
       <c r="C9">
-        <v>7.105730756245109</v>
+        <v>8.518674764337437</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.621290641783713</v>
+        <v>12.41261494894678</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.111196788835407</v>
+        <v>3.668936549300904</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.63464030227111</v>
+        <v>25.84324180911181</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.0297281621839</v>
+        <v>9.127678698949451</v>
       </c>
       <c r="L9">
-        <v>6.547316346592341</v>
+        <v>10.18601006877534</v>
       </c>
       <c r="M9">
-        <v>10.18664608218112</v>
+        <v>13.85212319685135</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.76724748308306</v>
+        <v>25.73351767890398</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.84304228553584</v>
+        <v>12.27908893512715</v>
       </c>
       <c r="C10">
-        <v>7.252324663556372</v>
+        <v>8.558152815320391</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.629958639989528</v>
+        <v>12.37117999473905</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.103937542743126</v>
+        <v>3.666454425632965</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.17355924967235</v>
+        <v>25.65772782130815</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.93624556141673</v>
+        <v>9.443028558427672</v>
       </c>
       <c r="L10">
-        <v>6.705575258612602</v>
+        <v>10.18235633612434</v>
       </c>
       <c r="M10">
-        <v>10.75078939360766</v>
+        <v>13.93701411277351</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.42074029107192</v>
+        <v>25.55599704598211</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.39729229372359</v>
+        <v>12.47174788322016</v>
       </c>
       <c r="C11">
-        <v>7.318678519230934</v>
+        <v>8.576113202426679</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.638566579392267</v>
+        <v>12.35414806738059</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.100706083846875</v>
+        <v>3.665378690767454</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.97606116420561</v>
+        <v>25.57800096345482</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.3290369659805</v>
+        <v>9.583738020599588</v>
       </c>
       <c r="L11">
-        <v>6.77973332581124</v>
+        <v>10.18211751859478</v>
       </c>
       <c r="M11">
-        <v>11.00139245129986</v>
+        <v>13.97716193205524</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.27947891007967</v>
+        <v>25.48037479278669</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.60270539453673</v>
+        <v>12.54408833902397</v>
       </c>
       <c r="C12">
-        <v>7.343750750786467</v>
+        <v>8.582912900556282</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.642518411708359</v>
+        <v>12.34795945065111</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.09949199487992</v>
+        <v>3.664978975351115</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.9031464617333</v>
+        <v>25.54848014917539</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.47495371165354</v>
+        <v>9.636579823096056</v>
       </c>
       <c r="L12">
-        <v>6.808114760926571</v>
+        <v>10.18223083081101</v>
       </c>
       <c r="M12">
-        <v>11.0953580139269</v>
+        <v>13.99257701569509</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.22852012248545</v>
+        <v>25.45247689143034</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.55866406830863</v>
+        <v>12.52853690904364</v>
       </c>
       <c r="C13">
-        <v>7.338353521444979</v>
+        <v>8.581448559026844</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.641636189208229</v>
+        <v>12.34928067645116</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.099753053682529</v>
+        <v>3.665064721909563</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.9187646723605</v>
+        <v>25.55480819639061</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.44365361416824</v>
+        <v>9.62521976217745</v>
       </c>
       <c r="L13">
-        <v>6.801989184450365</v>
+        <v>10.18219738073026</v>
       </c>
       <c r="M13">
-        <v>11.07516325313512</v>
+        <v>13.98924780577137</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.23937926904342</v>
+        <v>25.45845234515236</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.41428106882275</v>
+        <v>12.47771207435136</v>
       </c>
       <c r="C14">
-        <v>7.320742355557259</v>
+        <v>8.576672658005471</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.638877704367626</v>
+        <v>12.35363369692446</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.100606011222219</v>
+        <v>3.665345652988316</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.97002418270215</v>
+        <v>25.57555884407899</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.34109825800314</v>
+        <v>9.588094460872437</v>
       </c>
       <c r="L14">
-        <v>6.782062351383747</v>
+        <v>10.18212276299544</v>
       </c>
       <c r="M14">
-        <v>11.00914208049728</v>
+        <v>13.97842593930959</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.275234626679</v>
+        <v>25.47806480974584</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.32526159949657</v>
+        <v>12.44649835835356</v>
       </c>
       <c r="C15">
-        <v>7.309947719371163</v>
+        <v>8.573747031964189</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.637278829376</v>
+        <v>12.35633402943362</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.101129703778969</v>
+        <v>3.665518725534486</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.00166968951672</v>
+        <v>25.58835645054299</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.27791215293991</v>
+        <v>9.565295259483179</v>
       </c>
       <c r="L15">
-        <v>6.76989522698215</v>
+        <v>10.18210356280746</v>
       </c>
       <c r="M15">
-        <v>10.96857901029128</v>
+        <v>13.97182459408308</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.29753268083228</v>
+        <v>25.49017421508263</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.80619290109753</v>
+        <v>12.26641565433743</v>
       </c>
       <c r="C16">
-        <v>7.247981001122801</v>
+        <v>8.556978945725223</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.629491791178729</v>
+        <v>12.37232961089284</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.10415010156634</v>
+        <v>3.666525798791692</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.18672194448201</v>
+        <v>25.66303195584232</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.91018069036114</v>
+        <v>9.433773532397243</v>
       </c>
       <c r="L16">
-        <v>6.7007713981611</v>
+        <v>10.18240050667081</v>
       </c>
       <c r="M16">
-        <v>10.73428475760859</v>
+        <v>13.93442046883005</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.43031643607543</v>
+        <v>25.56104246560523</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.47975322483168</v>
+        <v>12.15491492801122</v>
       </c>
       <c r="C17">
-        <v>7.209876257690189</v>
+        <v>8.546691447955354</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.625924734766201</v>
+        <v>12.38260757332342</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.106020746049199</v>
+        <v>3.667157255667856</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.30345799672514</v>
+        <v>25.71003709364063</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.67956415318945</v>
+        <v>9.352351686907099</v>
       </c>
       <c r="L17">
-        <v>6.658912190143152</v>
+        <v>10.18294657922191</v>
       </c>
       <c r="M17">
-        <v>10.58895896700757</v>
+        <v>13.91186056329985</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.5160900269786</v>
+        <v>25.60583281909591</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.28903692182882</v>
+        <v>12.09042744223729</v>
       </c>
       <c r="C18">
-        <v>7.187928484094441</v>
+        <v>8.540774609567753</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.624310862517254</v>
+        <v>12.38869023202895</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.107103393286982</v>
+        <v>3.667525480956547</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.37174693870524</v>
+        <v>25.73751227912015</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.54507586756216</v>
+        <v>9.305264263867675</v>
       </c>
       <c r="L18">
-        <v>6.635040406823406</v>
+        <v>10.18339469169805</v>
       </c>
       <c r="M18">
-        <v>10.50480723637615</v>
+        <v>13.89902926400446</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.566953450491</v>
+        <v>25.63207813210918</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.223954512557</v>
+        <v>12.0685341972089</v>
       </c>
       <c r="C19">
-        <v>7.180492249444592</v>
+        <v>8.538771366984086</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.623838972242067</v>
+        <v>12.39077910152798</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.107471127468867</v>
+        <v>3.667651020382825</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.39506196599014</v>
+        <v>25.74689033886215</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.49922415324559</v>
+        <v>9.289278836756285</v>
       </c>
       <c r="L19">
-        <v>6.626993325896333</v>
+        <v>10.18356946074285</v>
       </c>
       <c r="M19">
-        <v>10.47622016816159</v>
+        <v>13.89470987802519</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.58443226074246</v>
+        <v>25.64104729983307</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.51480899489866</v>
+        <v>12.16682163451303</v>
       </c>
       <c r="C20">
-        <v>7.213935825251426</v>
+        <v>8.547786555516838</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.626258987525385</v>
+        <v>12.38149576600619</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.105820923266662</v>
+        <v>3.667089515889801</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.29091193169785</v>
+        <v>25.70498787937741</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.70430458178725</v>
+        <v>9.361045999883167</v>
       </c>
       <c r="L20">
-        <v>6.663347093936259</v>
+        <v>10.18287458410057</v>
       </c>
       <c r="M20">
-        <v>10.60448804210702</v>
+        <v>13.91424720010053</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.50679981022182</v>
+        <v>25.60101480829466</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.45681079523698</v>
+        <v>12.49265776961381</v>
       </c>
       <c r="C21">
-        <v>7.325916711723927</v>
+        <v>8.578075510881913</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.639668982477405</v>
+        <v>12.35234802805291</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.100355221385628</v>
+        <v>3.665262929604832</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.95491620535888</v>
+        <v>25.56944569723361</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.37129794450753</v>
+        <v>9.599011412496909</v>
       </c>
       <c r="L21">
-        <v>6.787907314601886</v>
+        <v>10.18213915809381</v>
       </c>
       <c r="M21">
-        <v>11.02855987608022</v>
+        <v>13.98159889674596</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.26463275267007</v>
+        <v>25.47228410355251</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.04643415049324</v>
+        <v>12.70199634096565</v>
       </c>
       <c r="C22">
-        <v>7.398782272482299</v>
+        <v>8.597861469063503</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.652477648816823</v>
+        <v>12.33481948642346</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.096838694359184</v>
+        <v>3.664113676897816</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14.74630735809581</v>
+        <v>25.48476612110163</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.7907527390463</v>
+        <v>9.751940687253082</v>
       </c>
       <c r="L22">
-        <v>6.871054301001505</v>
+        <v>10.18284562942494</v>
       </c>
       <c r="M22">
-        <v>11.30025728949828</v>
+        <v>14.02684874453646</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.12122724056676</v>
+        <v>25.39245658026831</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.73410784883514</v>
+        <v>12.59061999571509</v>
       </c>
       <c r="C23">
-        <v>7.359923889996718</v>
+        <v>8.587302791651309</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.645264319904807</v>
+        <v>12.34403570821782</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.098710644747039</v>
+        <v>3.664722992351833</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.85659969524391</v>
+        <v>25.52960411243003</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.56838904234511</v>
+        <v>9.670571639391364</v>
       </c>
       <c r="L23">
-        <v>6.826521903328489</v>
+        <v>10.18236027459602</v>
       </c>
       <c r="M23">
-        <v>11.15576575580708</v>
+        <v>14.00258809970362</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.19634145075111</v>
+        <v>25.43466789850331</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.49896975902663</v>
+        <v>12.16143980416406</v>
       </c>
       <c r="C24">
-        <v>7.21210062147184</v>
+        <v>8.547291464798839</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.626106512703609</v>
+        <v>12.38199787295612</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.105911240710957</v>
+        <v>3.667120124866941</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.29658035352181</v>
+        <v>25.70726922329569</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.69312536312657</v>
+        <v>9.357116159913675</v>
       </c>
       <c r="L24">
-        <v>6.661341469894865</v>
+        <v>10.1829067151099</v>
       </c>
       <c r="M24">
-        <v>10.59746921726444</v>
+        <v>13.91316776898325</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.51099509950967</v>
+        <v>25.60319148991763</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.05346236284997</v>
+        <v>11.68523113120315</v>
       </c>
       <c r="C25">
-        <v>7.051499625255518</v>
+        <v>8.504149393825296</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.622091600683643</v>
+        <v>12.4294866935908</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.113936595549941</v>
+        <v>3.669898206170195</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.81463744089455</v>
+        <v>25.9157002532721</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.67862624094292</v>
+        <v>9.009444352462415</v>
       </c>
       <c r="L25">
-        <v>6.491034848973419</v>
+        <v>10.18862317035059</v>
       </c>
       <c r="M25">
-        <v>9.974042060053574</v>
+        <v>13.82227031603931</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.90825599526322</v>
+        <v>25.80343955816626</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_199/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_199/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.32582968320327</v>
+        <v>12.89006414809441</v>
       </c>
       <c r="C2">
-        <v>8.472453906814785</v>
+        <v>6.932515778081977</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.47009151757337</v>
+        <v>7.632648526109039</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.672110882304977</v>
+        <v>2.120089117311741</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.0836635719414</v>
+        <v>16.23010868350399</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.747077556603333</v>
+        <v>10.87175518411076</v>
       </c>
       <c r="L2">
-        <v>10.19726921246547</v>
+        <v>6.372804231537543</v>
       </c>
       <c r="M2">
-        <v>13.76038602900983</v>
+        <v>9.499644312973695</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.96677269883756</v>
+        <v>16.24470751216536</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.07827039028585</v>
+        <v>12.03900894387256</v>
       </c>
       <c r="C3">
-        <v>8.451045178104968</v>
+        <v>6.851568824688376</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.50113403619955</v>
+        <v>7.647822179904108</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.673715595238764</v>
+        <v>2.124420530064631</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>26.20656583979776</v>
+        <v>16.5315412302707</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.566319071669923</v>
+        <v>10.28823264259075</v>
       </c>
       <c r="L3">
-        <v>10.20590862198843</v>
+        <v>6.297337707142815</v>
       </c>
       <c r="M3">
-        <v>13.72171817083736</v>
+        <v>9.170357323903101</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.08738321650708</v>
+        <v>16.49761227270939</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.92483694703489</v>
+        <v>11.48532896232336</v>
       </c>
       <c r="C4">
-        <v>8.43794495028714</v>
+        <v>6.801768043071506</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.52193474537765</v>
+        <v>7.660957224533581</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.674753052405734</v>
+        <v>2.127162907276773</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.28651275687345</v>
+        <v>16.72604291119603</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.454248197487992</v>
+        <v>9.912201478337659</v>
       </c>
       <c r="L4">
-        <v>10.21258808170198</v>
+        <v>6.253356171666749</v>
       </c>
       <c r="M4">
-        <v>13.69962973144842</v>
+        <v>8.965048514756049</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.1663325129804</v>
+        <v>16.66443365120549</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.86203685445207</v>
+        <v>11.25183945515544</v>
       </c>
       <c r="C5">
-        <v>8.432619279414224</v>
+        <v>6.781457702682616</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.53084916182748</v>
+        <v>7.667249684089303</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.675188979605722</v>
+        <v>2.128301713306874</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.32022069300565</v>
+        <v>16.80762297228377</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.408364342837283</v>
+        <v>9.754575181738781</v>
       </c>
       <c r="L5">
-        <v>10.21565627343974</v>
+        <v>6.23603346342515</v>
       </c>
       <c r="M5">
-        <v>13.69105033350608</v>
+        <v>8.880717423905432</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.19973576062754</v>
+        <v>16.73521482760019</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.85159490179191</v>
+        <v>11.21259304095847</v>
       </c>
       <c r="C6">
-        <v>8.431735771288764</v>
+        <v>6.778084473426284</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.53235585413043</v>
+        <v>7.668350709922586</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.675262160682138</v>
+        <v>2.128492107689086</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.32588609213031</v>
+        <v>16.82130799882723</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.400734185788348</v>
+        <v>9.728138733777762</v>
       </c>
       <c r="L6">
-        <v>10.21618667217774</v>
+        <v>6.233193492526736</v>
       </c>
       <c r="M6">
-        <v>13.68965137572163</v>
+        <v>8.866677787475567</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.20535668499758</v>
+        <v>16.74713432139554</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.92399100063063</v>
+        <v>11.48221190953002</v>
       </c>
       <c r="C7">
-        <v>8.437873072707255</v>
+        <v>6.801494184219985</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.5220531946402</v>
+        <v>7.661038308414287</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.674758878155882</v>
+        <v>2.127178178959138</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.28696278122834</v>
+        <v>16.72713380020342</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.453630179633594</v>
+        <v>9.910093344057989</v>
       </c>
       <c r="L7">
-        <v>10.21262805774682</v>
+        <v>6.253120112182684</v>
       </c>
       <c r="M7">
-        <v>13.69951231111952</v>
+        <v>8.963913727072658</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.16677801730501</v>
+        <v>16.66537702037443</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.24081833864349</v>
+        <v>12.60306043979922</v>
       </c>
       <c r="C8">
-        <v>8.465063782427194</v>
+        <v>6.904631003508081</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.48043392698687</v>
+        <v>7.63707567900015</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.672653386093049</v>
+        <v>2.121565650526369</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.12511029403635</v>
+        <v>16.33205538457938</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.685011652533872</v>
+        <v>10.67427746889312</v>
       </c>
       <c r="L8">
-        <v>10.19996308025958</v>
+        <v>6.346299638822243</v>
       </c>
       <c r="M8">
-        <v>13.74671378072484</v>
+        <v>9.386823357504101</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.00734354795464</v>
+        <v>16.32945115406345</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.84719176163476</v>
+        <v>14.55566348096275</v>
       </c>
       <c r="C9">
-        <v>8.518674764337437</v>
+        <v>7.105730756245235</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.41261494894678</v>
+        <v>7.621290641783658</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.668936549300904</v>
+        <v>2.111196788835408</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.84324180911181</v>
+        <v>15.63464030227112</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.127678698949451</v>
+        <v>12.02972816218387</v>
       </c>
       <c r="L9">
-        <v>10.18601006877534</v>
+        <v>6.547316346592318</v>
       </c>
       <c r="M9">
-        <v>13.85212319685135</v>
+        <v>10.18664608218112</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>25.73351767890398</v>
+        <v>15.7672474830831</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.27908893512715</v>
+        <v>15.84304228553584</v>
       </c>
       <c r="C10">
-        <v>8.558152815320391</v>
+        <v>7.252324663556115</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.37117999473905</v>
+        <v>7.629958639989479</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.666454425632965</v>
+        <v>2.103937542742991</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.65772782130815</v>
+        <v>15.17355924967221</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.443028558427672</v>
+        <v>12.93624556141674</v>
       </c>
       <c r="L10">
-        <v>10.18235633612434</v>
+        <v>6.705575258612559</v>
       </c>
       <c r="M10">
-        <v>13.93701411277351</v>
+        <v>10.75078939360762</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.55599704598211</v>
+        <v>15.42074029107177</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.47174788322016</v>
+        <v>16.3972922937236</v>
       </c>
       <c r="C11">
-        <v>8.576113202426679</v>
+        <v>7.318678519231041</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.35414806738059</v>
+        <v>7.638566579392434</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.665378690767454</v>
+        <v>2.100706083846877</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25.57800096345482</v>
+        <v>14.97606116420569</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.583738020599588</v>
+        <v>13.32903696598048</v>
       </c>
       <c r="L11">
-        <v>10.18211751859478</v>
+        <v>6.779733325811291</v>
       </c>
       <c r="M11">
-        <v>13.97716193205524</v>
+        <v>11.0013924512999</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.48037479278669</v>
+        <v>15.27947891007977</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.54408833902397</v>
+        <v>16.6027053945367</v>
       </c>
       <c r="C12">
-        <v>8.582912900556282</v>
+        <v>7.343750750786561</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.34795945065111</v>
+        <v>7.642518411708366</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.664978975351115</v>
+        <v>2.099491994879787</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25.54848014917539</v>
+        <v>14.9031464617332</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.636579823096056</v>
+        <v>13.47495371165356</v>
       </c>
       <c r="L12">
-        <v>10.18223083081101</v>
+        <v>6.808114760926523</v>
       </c>
       <c r="M12">
-        <v>13.99257701569509</v>
+        <v>11.09535801392689</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.45247689143034</v>
+        <v>15.2285201224853</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.52853690904364</v>
+        <v>16.55866406830869</v>
       </c>
       <c r="C13">
-        <v>8.581448559026844</v>
+        <v>7.33835352144497</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.34928067645116</v>
+        <v>7.641636189208295</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.665064721909563</v>
+        <v>2.099753053682529</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25.55480819639061</v>
+        <v>14.9187646723603</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.62521976217745</v>
+        <v>13.44365361416828</v>
       </c>
       <c r="L13">
-        <v>10.18219738073026</v>
+        <v>6.801989184450385</v>
       </c>
       <c r="M13">
-        <v>13.98924780577137</v>
+        <v>11.0751632531351</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.45845234515236</v>
+        <v>15.23937926904321</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.47771207435136</v>
+        <v>16.41428106882273</v>
       </c>
       <c r="C14">
-        <v>8.576672658005471</v>
+        <v>7.320742355557385</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.35363369692446</v>
+        <v>7.638877704367538</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.665345652988316</v>
+        <v>2.100606011222219</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>25.57555884407899</v>
+        <v>14.97002418270207</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.588094460872437</v>
+        <v>13.34109825800318</v>
       </c>
       <c r="L14">
-        <v>10.18212276299544</v>
+        <v>6.782062351383661</v>
       </c>
       <c r="M14">
-        <v>13.97842593930959</v>
+        <v>11.00914208049726</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.47806480974584</v>
+        <v>15.27523462667883</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.44649835835356</v>
+        <v>16.32526159949664</v>
       </c>
       <c r="C15">
-        <v>8.573747031964189</v>
+        <v>7.309947719371225</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.35633402943362</v>
+        <v>7.637278829376069</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.665518725534486</v>
+        <v>2.101129703778969</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.58835645054299</v>
+        <v>15.00166968951668</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.565295259483179</v>
+        <v>13.27791215293996</v>
       </c>
       <c r="L15">
-        <v>10.18210356280746</v>
+        <v>6.769895226982197</v>
       </c>
       <c r="M15">
-        <v>13.97182459408308</v>
+        <v>10.96857901029124</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.49017421508263</v>
+        <v>15.29753268083219</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.26641565433743</v>
+        <v>15.80619290109754</v>
       </c>
       <c r="C16">
-        <v>8.556978945725223</v>
+        <v>7.247981001122791</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.37232961089284</v>
+        <v>7.629491791178737</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.666525798791692</v>
+        <v>2.104150101566205</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.66303195584232</v>
+        <v>15.18672194448194</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.433773532397243</v>
+        <v>12.91018069036117</v>
       </c>
       <c r="L16">
-        <v>10.18240050667081</v>
+        <v>6.700771398161069</v>
       </c>
       <c r="M16">
-        <v>13.93442046883005</v>
+        <v>10.73428475760859</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.56104246560523</v>
+        <v>15.43031643607534</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.15491492801122</v>
+        <v>15.47975322483162</v>
       </c>
       <c r="C17">
-        <v>8.546691447955354</v>
+        <v>7.209876257690054</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.38260757332342</v>
+        <v>7.625924734766314</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.667157255667856</v>
+        <v>2.106020746049065</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.71003709364063</v>
+        <v>15.30345799672534</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.352351686907099</v>
+        <v>12.67956415318938</v>
       </c>
       <c r="L17">
-        <v>10.18294657922191</v>
+        <v>6.658912190143234</v>
       </c>
       <c r="M17">
-        <v>13.91186056329985</v>
+        <v>10.58895896700762</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.60583281909591</v>
+        <v>15.51609002697877</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.09042744223729</v>
+        <v>15.28903692182889</v>
       </c>
       <c r="C18">
-        <v>8.540774609567753</v>
+        <v>7.187928484094209</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.38869023202895</v>
+        <v>7.624310862517353</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.667525480956547</v>
+        <v>2.107103393286849</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.73751227912015</v>
+        <v>15.37174693870507</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.305264263867675</v>
+        <v>12.54507586756221</v>
       </c>
       <c r="L18">
-        <v>10.18339469169805</v>
+        <v>6.635040406823424</v>
       </c>
       <c r="M18">
-        <v>13.89902926400446</v>
+        <v>10.50480723637615</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.63207813210918</v>
+        <v>15.56695345049082</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.0685341972089</v>
+        <v>15.22395451255704</v>
       </c>
       <c r="C19">
-        <v>8.538771366984086</v>
+        <v>7.180492249444575</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.39077910152798</v>
+        <v>7.623838972242066</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.667651020382825</v>
+        <v>2.107471127469269</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.74689033886215</v>
+        <v>15.39506196599021</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.289278836756285</v>
+        <v>12.49922415324559</v>
       </c>
       <c r="L19">
-        <v>10.18356946074285</v>
+        <v>6.626993325896324</v>
       </c>
       <c r="M19">
-        <v>13.89470987802519</v>
+        <v>10.47622016816157</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.64104729983307</v>
+        <v>15.58443226074255</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.16682163451303</v>
+        <v>15.51480899489872</v>
       </c>
       <c r="C20">
-        <v>8.547786555516838</v>
+        <v>7.21393582525119</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.38149576600619</v>
+        <v>7.626258987525344</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.667089515889801</v>
+        <v>2.105820923266529</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.70498787937741</v>
+        <v>15.29091193169767</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.361045999883167</v>
+        <v>12.70430458178733</v>
       </c>
       <c r="L20">
-        <v>10.18287458410057</v>
+        <v>6.663347093936268</v>
       </c>
       <c r="M20">
-        <v>13.91424720010053</v>
+        <v>10.60448804210697</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.60101480829466</v>
+        <v>15.50679981022164</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.49265776961381</v>
+        <v>16.45681079523704</v>
       </c>
       <c r="C21">
-        <v>8.578075510881913</v>
+        <v>7.325916711723672</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.35234802805291</v>
+        <v>7.639668982477317</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.665262929604832</v>
+        <v>2.100355221385225</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>25.56944569723361</v>
+        <v>14.95491620535879</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.599011412496909</v>
+        <v>13.37129794450752</v>
       </c>
       <c r="L21">
-        <v>10.18213915809381</v>
+        <v>6.787907314601892</v>
       </c>
       <c r="M21">
-        <v>13.98159889674596</v>
+        <v>11.02855987608019</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.47228410355251</v>
+        <v>15.26463275267004</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.70199634096565</v>
+        <v>17.04643415049325</v>
       </c>
       <c r="C22">
-        <v>8.597861469063503</v>
+        <v>7.398782272482299</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.33481948642346</v>
+        <v>7.652477648816715</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.664113676897816</v>
+        <v>2.096838694359051</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>25.48476612110163</v>
+        <v>14.74630735809563</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.751940687253082</v>
+        <v>13.7907527390463</v>
       </c>
       <c r="L22">
-        <v>10.18284562942494</v>
+        <v>6.871054301001426</v>
       </c>
       <c r="M22">
-        <v>14.02684874453646</v>
+        <v>11.30025728949824</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.39245658026831</v>
+        <v>15.12122724056656</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.59061999571509</v>
+        <v>16.73410784883515</v>
       </c>
       <c r="C23">
-        <v>8.587302791651309</v>
+        <v>7.359923889996921</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.34403570821782</v>
+        <v>7.645264319904865</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.664722992351833</v>
+        <v>2.098710644747039</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.52960411243003</v>
+        <v>14.85659969524397</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.670571639391364</v>
+        <v>13.56838904234512</v>
       </c>
       <c r="L23">
-        <v>10.18236027459602</v>
+        <v>6.826521903328478</v>
       </c>
       <c r="M23">
-        <v>14.00258809970362</v>
+        <v>11.15576575580708</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.43466789850331</v>
+        <v>15.1963414507511</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.16143980416406</v>
+        <v>15.49896975902661</v>
       </c>
       <c r="C24">
-        <v>8.547291464798839</v>
+        <v>7.212100621471857</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.38199787295612</v>
+        <v>7.626106512703605</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.667120124866941</v>
+        <v>2.105911240711092</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.70726922329569</v>
+        <v>15.29658035352166</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.357116159913675</v>
+        <v>12.69312536312657</v>
       </c>
       <c r="L24">
-        <v>10.1829067151099</v>
+        <v>6.661341469894828</v>
       </c>
       <c r="M24">
-        <v>13.91316776898325</v>
+        <v>10.59746921726444</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.60319148991763</v>
+        <v>15.5109950995095</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.68523113120315</v>
+        <v>14.05346236284994</v>
       </c>
       <c r="C25">
-        <v>8.504149393825296</v>
+        <v>7.051499625255653</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.4294866935908</v>
+        <v>7.622091600683587</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.669898206170195</v>
+        <v>2.113936595549942</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.9157002532721</v>
+        <v>15.81463744089463</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.009444352462415</v>
+        <v>11.67862624094292</v>
       </c>
       <c r="L25">
-        <v>10.18862317035059</v>
+        <v>6.491034848973334</v>
       </c>
       <c r="M25">
-        <v>13.82227031603931</v>
+        <v>9.974042060053556</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.80343955816626</v>
+        <v>15.90825599526324</v>
       </c>
     </row>
   </sheetData>
